--- a/Datasets/height_data.xlsx
+++ b/Datasets/height_data.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27318"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\활동\대외\동아리\AI PLAYGROUND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCD930D2-F7A0-4360-A85F-40403BD63794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AFDA327-9DAD-43E3-A4DA-3412B3959A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{134E85DA-7F4B-472F-8084-B4B4F206BB9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,19 +38,17 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>age</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>나이</t>
   </si>
   <si>
-    <t>height</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>키</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,7 +109,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -410,12 +408,12 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,92 +421,92 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>6</v>
       </c>
       <c r="B2">
-        <v>123.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>7</v>
       </c>
       <c r="B3">
-        <v>128.80000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>8</v>
       </c>
       <c r="B4">
-        <v>134.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>9</v>
       </c>
       <c r="B5">
-        <v>140.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>10</v>
       </c>
       <c r="B6">
-        <v>147.69999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>11</v>
       </c>
       <c r="B7">
-        <v>153.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>12</v>
       </c>
       <c r="B8">
-        <v>160.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>13</v>
       </c>
       <c r="B9">
-        <v>163.19999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>14</v>
       </c>
       <c r="B10">
-        <v>166.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>15</v>
       </c>
       <c r="B11">
-        <v>167.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>16</v>
       </c>
       <c r="B12">
-        <v>168.8</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
